--- a/tradept/Excel/Localization/english/C传承点数公式_LegacyFormula_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/C传承点数公式_LegacyFormula_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A657CC0-F44D-45FB-8C28-07F12FD8A1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6F6E81-3F57-4F1A-9AF8-0880D9FA9CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -417,250 +417,250 @@
     <t>成功获得【浅溪镇】的秘宝(需要占领浅溪镇后，才能进行秘宝挑战)</t>
   </si>
   <si>
-    <t>Recompensa de gratitud</t>
-  </si>
-  <si>
-    <t>Principios humildes</t>
-  </si>
-  <si>
-    <t>Dificultad recompensa de liquidación</t>
-  </si>
-  <si>
-    <t>Recompensa del modo experto</t>
-  </si>
-  <si>
-    <t>Recompensa del nivel principal</t>
-  </si>
-  <si>
-    <t>Recompensa de talento</t>
-  </si>
-  <si>
-    <t>Recompensa del planificador de la ciudad</t>
-  </si>
-  <si>
-    <t>Recompensa de Sol Warrior</t>
-  </si>
-  <si>
-    <t>Recompensa de la soltera lagarto</t>
-  </si>
-  <si>
-    <t>Recompensa de princesa de hielo</t>
-  </si>
-  <si>
-    <t>La recompensa caída</t>
-  </si>
-  <si>
-    <t>Recompensa de Windchaser</t>
-  </si>
-  <si>
-    <t>Recompensa de la mina Redstone abandonada</t>
-  </si>
-  <si>
-    <t>Recompensa del taller de cerámica</t>
-  </si>
-  <si>
-    <t>Recompensa del valle verde</t>
-  </si>
-  <si>
-    <t>Recompensa secreta de escondite</t>
-  </si>
-  <si>
-    <t>Recompensa del valle de Sirocco</t>
-  </si>
-  <si>
-    <t>Recompensa de Mirage Forest</t>
-  </si>
-  <si>
-    <t>Recompensa de las cuevas de Agadir</t>
-  </si>
-  <si>
-    <t>Recompensa de las cavernas de nieve</t>
-  </si>
-  <si>
-    <t>Recompensa de cavernas rituales</t>
-  </si>
-  <si>
-    <t>Recompensa del Palacio del Arbor</t>
-  </si>
-  <si>
-    <t>Recompensa de las cuevas de huesos de leviatán</t>
-  </si>
-  <si>
-    <t>Recompensa de vacío de lava pāhoehoe</t>
-  </si>
-  <si>
-    <t>Recompensa de formación gigante de Zagros</t>
-  </si>
-  <si>
-    <t>Redstone Keep Treasure Recompensa</t>
-  </si>
-  <si>
-    <t>Recompensa del tesoro del pueblo de Fleur</t>
-  </si>
-  <si>
-    <t>Halfmoon Hills Bazaar Treasure Recompensa</t>
-  </si>
-  <si>
-    <t>Recompensa del tesoro de Snowridge</t>
-  </si>
-  <si>
-    <t>Recompensa del tesoro de Frost Valley</t>
-  </si>
-  <si>
-    <t>Recompensa del tesoro de dunestormas</t>
-  </si>
-  <si>
-    <t>Recompensa del tesoro de Mireton</t>
-  </si>
-  <si>
-    <t>Recompensa del tesoro de Nagukka</t>
-  </si>
-  <si>
-    <t>Recompensa del tesoro de Cotta Town</t>
-  </si>
-  <si>
-    <t>Recompensa del tesoro de tríptico de rock</t>
-  </si>
-  <si>
-    <t>Recompensa del tesoro de la ciudad de Amaranth</t>
-  </si>
-  <si>
-    <t>Qebui Mantenga la recompensa del tesoro</t>
-  </si>
-  <si>
-    <t>Recompensa del tesoro de Diresprings</t>
-  </si>
-  <si>
-    <t>Camel Bell Bazaar Recompensa del tesoro</t>
-  </si>
-  <si>
-    <t>Recompensa del tesoro del bazar dorado</t>
-  </si>
-  <si>
-    <t>Recompensa del tesoro Agadir</t>
-  </si>
-  <si>
-    <t>Gracias por apoyar a Sands of Salzaar, ¡realmente lo apreciamos!</t>
-  </si>
-  <si>
-    <t>Comenzando como Sultan deduce un legado inicial de 60. Completar las misiones del sultán reclama estos puntos para su uso.</t>
-  </si>
-  <si>
-    <t>Premia 20 legado por cada nivel de dificultad, sin límite. Debe obtener una victoria completa en la batalla final en modo historia o reclamar el número requerido de ciudades en modo Sandbox para completar cada dificultad.</t>
-  </si>
-  <si>
-    <t>Premios 20 Legado de bonificación para jugadores de modo experto.</t>
-  </si>
-  <si>
-    <t>Premios 1 legado por cada 2 niveles que su personaje principal nivela.</t>
-  </si>
-  <si>
-    <t>Premios 1 legado por cada 5 puntos de talento ganados.</t>
-  </si>
-  <si>
-    <t>El número de ciudades poseía al calcular el legado (5 legado por ciudad).</t>
-  </si>
-  <si>
-    <t>Derrota al Guerrero Sol en Redstone Keep antes de julio para desbloquear. Complete anteriormente para ganar más recompensas. Puntos completos otorgados para la victoria dentro de los 120 días.</t>
-  </si>
-  <si>
-    <t>Derrota a la Maiden Lizard en Redstone Keep antes de julio para desbloquear. Complete anteriormente para ganar más recompensas. Puntos completos otorgados para la victoria dentro de los 90 días.</t>
-  </si>
-  <si>
-    <t>Derrota a la princesa de hielo de las montañas de Zagros antes de julio para desbloquear. Complete anteriormente para ganar más recompensas. Puntos completos otorgados para la victoria dentro de los 120 días.</t>
-  </si>
-  <si>
-    <t>Derrota al caído en Redstone Keep antes de julio para desbloquear. Complete anteriormente para ganar más recompensas. Puntos completos otorgados para la victoria dentro de los 120 días.</t>
-  </si>
-  <si>
-    <t>Derrota al Windchaser de las montañas de Zagros antes de julio para desbloquear. Complete anteriormente para ganar más recompensas. Puntos completos otorgados para la victoria dentro de los 120 días.</t>
-  </si>
-  <si>
-    <t>Limpie la mazmorra de la mina Redstone abandonada para desbloquear.</t>
-  </si>
-  <si>
-    <t>Limpie la mazmorra del taller de cerámica para desbloquear.</t>
-  </si>
-  <si>
-    <t>Limpie la mazmorra del Valle Verdant para desbloquear.</t>
-  </si>
-  <si>
-    <t>Limpie la mazmorra de escondite secreto para desbloquear.</t>
-  </si>
-  <si>
-    <t>Limpie la mazmorra de Sirocco Valley para desbloquear.</t>
-  </si>
-  <si>
-    <t>Desbloquea el mazmorón del bosque Mirage para desbloquear.</t>
-  </si>
-  <si>
-    <t>Limpie la mazmorra de las cuevas Agadir para desbloquear.</t>
-  </si>
-  <si>
-    <t>Limpia la mazmorra de las cavernas de nieve para desbloquear.</t>
-  </si>
-  <si>
-    <t>Limpie la mazmorra de cavernas rituales para desbloquear.</t>
-  </si>
-  <si>
-    <t>Limpie la mazmorra del Palacio Arbor para desbloquear.</t>
-  </si>
-  <si>
-    <t>Limpia la mazmorra de cuevas de huesos de Leviatán para desbloquear.</t>
-  </si>
-  <si>
-    <t>Limpie la mazmorra Void de lava Pāhoehoe para desbloquear.</t>
-  </si>
-  <si>
-    <t>Limpie la mazmorra de la Formación Gigante de Zagros para desbloquear.</t>
-  </si>
-  <si>
-    <t>Reclamar el tesoro del reino secreto de Redstone para desbloquear. Primero debes ocupar Redstone Keep.</t>
-  </si>
-  <si>
-    <t>Reclamar el tesoro del reino secreto de Fleur Village para desbloquear. Primero debes ocupar el pueblo de Fleur.</t>
-  </si>
-  <si>
-    <t>Reclamar el tesoro del reino secreto de Halfmoon Hills Bazaar para desbloquear. Primero debes ocupar el bazar de Halfmoon Hills.</t>
-  </si>
-  <si>
-    <t>Reclamar el tesoro del reino secreto de Snowridge para desbloquear. Primero debes ocupar Snowridge.</t>
-  </si>
-  <si>
-    <t>Reclamar el tesoro del reino secreto de Frost Valley para desbloquear. Primero debes ocupar Frost Valley.</t>
-  </si>
-  <si>
-    <t>Reclamar el tesoro del reino secreto de Dunestorm para desbloquear. Primero debes ocupar Dunestorm.</t>
-  </si>
-  <si>
-    <t>Reclamar el tesoro del reino secreto de Mireton para desbloquear. Primero debes ocupar Mireton.</t>
-  </si>
-  <si>
-    <t>Reclamar el tesoro del reino secreto de Nagukka para desbloquear. Primero debes ocupar Nagukka.</t>
-  </si>
-  <si>
-    <t>Reclamar el tesoro del reino secreto de Cotta Town para desbloquear. Primero debes ocupar la ciudad de Cotta.</t>
-  </si>
-  <si>
-    <t>Reclamar el tesoro del reino secreto de Triptych Rock para desbloquear. Primero debes ocupar Triptych Rock.</t>
-  </si>
-  <si>
-    <t>Reclamar el tesoro del reino secreto de la ciudad de Amaranth para desbloquear. Primero debes ocupar la ciudad de Amaranth.</t>
-  </si>
-  <si>
-    <t>Reclamar el tesoro del reino secreto de Qebui Keep para desbloquear. Primero debe ocupar Qebui Keep.</t>
-  </si>
-  <si>
-    <t>Reclamar el tesoro del reino secreto de Diresprings para desbloquear. Primero debe ocupar diresprings.</t>
-  </si>
-  <si>
-    <t>Reclamar el tesoro del reino secreto del Bazaar Bell Bell para desbloquear. Primero debes ocupar el Bazaar de Camel Bell.</t>
-  </si>
-  <si>
-    <t>Reclamar el tesoro del reino secreto del bazar de oro para desbloquear. Primero debes ocupar el bazar de oro.</t>
-  </si>
-  <si>
-    <t>Reclamar el tesoro del reino secreto de Agadir para desbloquear. Primero debes ocupar Agadir.</t>
+    <t>Obrigado por apoiar Sands of Salzaar - nós realmente apreciamos isso!</t>
+  </si>
+  <si>
+    <t>Começar como Sultão deduz um Legacy inicial de 60. Completar as missões do Sultão recupera esses pontos para uso.</t>
+  </si>
+  <si>
+    <t>Premia 20 Legacy para cada nível de dificuldade, sem limite. Você deve conquistar uma vitória completa na batalha final no Modo História ou reivindicar o número necessário de cidades no Modo Sandbox para completar cada dificuldade.</t>
+  </si>
+  <si>
+    <t>Premia 20 Legacy de bônus para jogadores do Modo Especialista.</t>
+  </si>
+  <si>
+    <t>Premia 1 Legacy para cada 2 níveis que seu personagem principal sobe.</t>
+  </si>
+  <si>
+    <t>Premia 1 Legacy para cada 5 Pontos de Talento ganhos.</t>
+  </si>
+  <si>
+    <t>O número de cidades conquistadas ao calcular o Legacy (5 Legacy por cidade).</t>
+  </si>
+  <si>
+    <t>Derrote o Guerreiro do Sol em Redstone Keep antes de julho para desbloquear. Complete antes para ganhar mais recompensas. Pontos completos concedidos pela vitória dentro de 120 dias.</t>
+  </si>
+  <si>
+    <t>Derrote a Donzela Lagarto em Redstone Keep antes de julho para desbloquear. Complete antes para ganhar mais recompensas. Pontos completos concedidos pela vitória dentro de 90 dias.</t>
+  </si>
+  <si>
+    <t>Derrote a Princesa do Gelo das Montanhas Zagros antes de julho para desbloquear. Complete antes para ganhar mais recompensas. Pontos completos concedidos pela vitória dentro de 120 dias.</t>
+  </si>
+  <si>
+    <t>Derrote O Caído em Redstone Keep antes de julho para desbloquear. Complete antes para ganhar mais recompensas. Pontos completos concedidos pela vitória dentro de 120 dias.</t>
+  </si>
+  <si>
+    <t>Derrote o Caçador do Vento das Montanhas Zagros antes de julho para desbloquear. Complete antes para ganhar mais recompensas. Pontos completos concedidos pela vitória dentro de 120 dias.</t>
+  </si>
+  <si>
+    <t>Limpe a masmorra da Mina de Pedra Vermelha Abandonada para desbloquear.</t>
+  </si>
+  <si>
+    <t>Limpe a masmorra da Oficina de Cerâmica para desbloquear.</t>
+  </si>
+  <si>
+    <t>Limpe a masmorra do Vale Verdejante para desbloquear.</t>
+  </si>
+  <si>
+    <t>Limpe a masmorra do Esconderijo Secreto para desbloquear.</t>
+  </si>
+  <si>
+    <t>Limpe a masmorra do Vale de Sirocco para desbloquear.</t>
+  </si>
+  <si>
+    <t>Limpe a masmorra do Mirage da Floresta para desbloquear.</t>
+  </si>
+  <si>
+    <t>Limpe a masmorra das Cavernas de Agadir para desbloquear.</t>
+  </si>
+  <si>
+    <t>Limpe a masmorra das Cavernas de Neve para desbloquear.</t>
+  </si>
+  <si>
+    <t>Limpe a masmorra das Cavernas do Ritual para desbloquear.</t>
+  </si>
+  <si>
+    <t>Limpe a masmorra do Palácio de Arbor para desbloquear.</t>
+  </si>
+  <si>
+    <t>Limpe a masmorra das Cavernas dos Ossos de Leviatã para desbloquear.</t>
+  </si>
+  <si>
+    <t>Limpe a masmorra do Vazio de Lava Pāhoehoe para desbloquear.</t>
+  </si>
+  <si>
+    <t>Limpe a masmorra da Formação de Gigantes de Zagros para desbloquear.</t>
+  </si>
+  <si>
+    <t>Reivindique o tesouro do Reino Secreto do Castelo de Pedra Vermelha para desbloquear. Você deve primeiro ocupar o Castelo de Pedra Vermelha.</t>
+  </si>
+  <si>
+    <t>Reivindique o tesouro do Reino Secreto da Vila de Fleur para desbloquear. Você deve primeiro ocupar a Vila de Fleur.</t>
+  </si>
+  <si>
+    <t>Reivindique o tesouro do Reino Secreto do Bazar das Colinas da Meia-Lua para desbloquear. Você deve primeiro ocupar o Bazar das Colinas da Meia-Lua.</t>
+  </si>
+  <si>
+    <t>Reivindique o tesouro do Reino Secreto de Snowridge para desbloquear. Você deve primeiro ocupar Snowridge.</t>
+  </si>
+  <si>
+    <t>Reivindique o tesouro do Reino Secreto do Vale do Gelo para desbloquear. Você deve primeiro ocupar o Vale do Gelo.</t>
+  </si>
+  <si>
+    <t>Reivindique o tesouro do Reino Secreto de Dunestorm para desbloquear. Você deve primeiro ocupar Dunestorm.</t>
+  </si>
+  <si>
+    <t>Reivindique o tesouro do Reino Secreto de Mireton para desbloquear. Você deve primeiro ocupar Mireton.</t>
+  </si>
+  <si>
+    <t>Reivindique o tesouro do Reino Secreto de Nagukka para desbloquear. Você deve primeiro ocupar Nagukka.</t>
+  </si>
+  <si>
+    <t>Reivindique o tesouro do Reino Secreto de Cotta Town para desbloquear. Você deve primeiro ocupar Cotta Town.</t>
+  </si>
+  <si>
+    <t>Reivindique o tesouro do Reino Secreto da Rocha Triptych para desbloquear. Você deve primeiro ocupar a Rocha Triptych.</t>
+  </si>
+  <si>
+    <t>Reivindique o tesouro do Reino Secreto da Cidade de Amaranth para desbloquear. Você deve primeiro ocupar a Cidade de Amaranth.</t>
+  </si>
+  <si>
+    <t>Reivindique o tesouro do Reino Secreto do Castelo de Qebui para desbloquear. Você deve primeiro ocupar o Castelo de Qebui.</t>
+  </si>
+  <si>
+    <t>Reivindique o tesouro do Reino Secreto de Diresprings para desbloquear. Você deve primeiro ocupar Diresprings.</t>
+  </si>
+  <si>
+    <t>Reivindique o tesouro do Reino Secreto do Bazar do Sino de Camelo para desbloquear. Você deve primeiro ocupar o Bazar do Sino de Camelo.</t>
+  </si>
+  <si>
+    <t>Reivindique o tesouro do Reino Secreto do Bazar Dourado para desbloquear. Você deve primeiro ocupar o Bazar Dourado.</t>
+  </si>
+  <si>
+    <t>Reivindique o tesouro do Reino Secreto de Agadir para desbloquear. Você deve primeiro ocupar Agadir.</t>
+  </si>
+  <si>
+    <t>Gratidão pela Recompensa</t>
+  </si>
+  <si>
+    <t>Começos Humildes</t>
+  </si>
+  <si>
+    <t>Recompensa por Limpar a Dificuldade</t>
+  </si>
+  <si>
+    <t>Recompensa do Modo Especialista</t>
+  </si>
+  <si>
+    <t>Recompensa do Nível Principal</t>
+  </si>
+  <si>
+    <t>Recompensa de Talento</t>
+  </si>
+  <si>
+    <t>Recompensa de Planejador de Cidade</t>
+  </si>
+  <si>
+    <t>Recompensa de Guerreiro do Sol</t>
+  </si>
+  <si>
+    <t>Recompensa de Donzela Lagarto</t>
+  </si>
+  <si>
+    <t>Recompensa da Princesa do Gelo</t>
+  </si>
+  <si>
+    <t>Recompensa do Caído</t>
+  </si>
+  <si>
+    <t>Recompensa do Caçador do Vento</t>
+  </si>
+  <si>
+    <t>Recompensa da Mina de Pedra Vermelha Abandonada</t>
+  </si>
+  <si>
+    <t>Recompensa da Oficina de Cerâmica</t>
+  </si>
+  <si>
+    <t>Recompensa do Vale Verdejante</t>
+  </si>
+  <si>
+    <t>Recompensa do Esconderijo Secreto</t>
+  </si>
+  <si>
+    <t>Recompensa do Vale de Sirocco</t>
+  </si>
+  <si>
+    <t>Recompensa do Mirage da Floresta</t>
+  </si>
+  <si>
+    <t>Recompensa das Cavernas de Agadir</t>
+  </si>
+  <si>
+    <t>Recompensa das Cavernas de Neve</t>
+  </si>
+  <si>
+    <t>Recompensa das Cavernas do Ritual</t>
+  </si>
+  <si>
+    <t>Recompensa do Palácio de Arbor</t>
+  </si>
+  <si>
+    <t>Recompensa das Cavernas dos Ossos de Leviatã</t>
+  </si>
+  <si>
+    <t>Recompensa do Vazio de Lava Pāhoehoe</t>
+  </si>
+  <si>
+    <t>Recompensa da Formação de Gigantes de Zagros</t>
+  </si>
+  <si>
+    <t>Recompensa do Tesouro do Castelo de Pedra Vermelha</t>
+  </si>
+  <si>
+    <t>Recompensa do Tesouro da Vila de Fleur</t>
+  </si>
+  <si>
+    <t>Recompensa do Tesouro do Bazar das Colinas da Meia-Lua</t>
+  </si>
+  <si>
+    <t>Recompensa do Tesouro de Snowridge</t>
+  </si>
+  <si>
+    <t>Recompensa do Tesouro do Vale do Gelo</t>
+  </si>
+  <si>
+    <t>Recompensa do Tesouro de Dunestorm</t>
+  </si>
+  <si>
+    <t>Recompensa do Tesouro de Mireton</t>
+  </si>
+  <si>
+    <t>Recompensa do Tesouro de Nagukka</t>
+  </si>
+  <si>
+    <t>Recompensa do Tesouro da Cidade de Cotta</t>
+  </si>
+  <si>
+    <t>Recompensa do Tesouro da Rocha Triptych</t>
+  </si>
+  <si>
+    <t>Recompensa do Tesouro da Cidade de Amaranth</t>
+  </si>
+  <si>
+    <t>Recompensa do Tesouro do Castelo de Qebui</t>
+  </si>
+  <si>
+    <t>Recompensa do Tesouro de Diresprings</t>
+  </si>
+  <si>
+    <t>Recompensa do Tesouro do Bazar do Sino de Camelo</t>
+  </si>
+  <si>
+    <t>Recompensa do Tesouro do Bazar Dourado</t>
+  </si>
+  <si>
+    <t>Recompensa de Agadir</t>
   </si>
 </sst>
 </file>
@@ -739,7 +739,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -981,12 +981,16 @@
   <dimension ref="A1:Q1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="67.5" x14ac:dyDescent="0.25">
@@ -1016,13 +1020,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="M2" s="4"/>
       <c r="Q2" s="4"/>
@@ -1035,13 +1039,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="M3" s="4"/>
       <c r="Q3" s="4"/>
@@ -1054,13 +1058,13 @@
         <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="M4" s="4"/>
       <c r="Q4" s="4"/>
@@ -1073,13 +1077,13 @@
         <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="M5" s="4"/>
       <c r="Q5" s="4"/>
@@ -1092,13 +1096,13 @@
         <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="M6" s="4"/>
       <c r="Q6" s="4"/>
@@ -1111,13 +1115,13 @@
         <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="M7" s="4"/>
       <c r="Q7" s="4"/>
@@ -1130,13 +1134,13 @@
         <v>23</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="M8" s="4"/>
       <c r="Q8" s="4"/>
@@ -1149,13 +1153,13 @@
         <v>26</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="M9" s="4"/>
       <c r="Q9" s="4"/>
@@ -1168,13 +1172,13 @@
         <v>29</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="M10" s="4"/>
       <c r="Q10" s="4"/>
@@ -1187,13 +1191,13 @@
         <v>32</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="M11" s="4"/>
       <c r="Q11" s="4"/>
@@ -1206,13 +1210,13 @@
         <v>35</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="M12" s="4"/>
       <c r="Q12" s="4"/>
@@ -1225,13 +1229,13 @@
         <v>38</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="M13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1244,13 +1248,13 @@
         <v>41</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="M14" s="4"/>
       <c r="Q14" s="4"/>
@@ -1263,13 +1267,13 @@
         <v>44</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="M15" s="4"/>
       <c r="Q15" s="4"/>
@@ -1282,13 +1286,13 @@
         <v>47</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>48</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="M16" s="4"/>
       <c r="Q16" s="4"/>
@@ -1301,13 +1305,13 @@
         <v>50</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>51</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="M17" s="4"/>
       <c r="Q17" s="4"/>
@@ -1320,13 +1324,13 @@
         <v>53</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="M18" s="4"/>
       <c r="Q18" s="4"/>
@@ -1339,13 +1343,13 @@
         <v>56</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="M19" s="4"/>
       <c r="Q19" s="4"/>
@@ -1358,13 +1362,13 @@
         <v>59</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="M20" s="4"/>
       <c r="Q20" s="4"/>
@@ -1377,13 +1381,13 @@
         <v>62</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="M21" s="4"/>
       <c r="Q21" s="4"/>
@@ -1396,13 +1400,13 @@
         <v>65</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="M22" s="4"/>
       <c r="Q22" s="4"/>
@@ -1415,13 +1419,13 @@
         <v>68</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="M23" s="4"/>
       <c r="Q23" s="4"/>
@@ -1434,13 +1438,13 @@
         <v>71</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="M24" s="4"/>
       <c r="Q24" s="4"/>
@@ -1453,13 +1457,13 @@
         <v>74</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="M25" s="4"/>
       <c r="Q25" s="4"/>
@@ -1472,13 +1476,13 @@
         <v>77</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="M26" s="4"/>
       <c r="Q26" s="4"/>
@@ -1491,13 +1495,13 @@
         <v>80</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>81</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="M27" s="4"/>
       <c r="Q27" s="4"/>
@@ -1510,13 +1514,13 @@
         <v>83</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>84</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="M28" s="4"/>
       <c r="Q28" s="4"/>
@@ -1529,13 +1533,13 @@
         <v>86</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>87</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="M29" s="4"/>
       <c r="Q29" s="4"/>
@@ -1548,13 +1552,13 @@
         <v>89</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="M30" s="4"/>
       <c r="Q30" s="4"/>
@@ -1567,13 +1571,13 @@
         <v>92</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="M31" s="4"/>
       <c r="Q31" s="4"/>
@@ -1586,13 +1590,13 @@
         <v>95</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>96</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="M32" s="4"/>
       <c r="Q32" s="4"/>
@@ -1605,13 +1609,13 @@
         <v>98</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>99</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="M33" s="4"/>
       <c r="Q33" s="4"/>
@@ -1624,13 +1628,13 @@
         <v>101</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="M34" s="4"/>
       <c r="Q34" s="4"/>
@@ -1643,13 +1647,13 @@
         <v>104</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>105</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="M35" s="4"/>
       <c r="Q35" s="4"/>
@@ -1662,13 +1666,13 @@
         <v>107</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>108</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="M36" s="4"/>
       <c r="Q36" s="4"/>
@@ -1681,13 +1685,13 @@
         <v>110</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>111</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="M37" s="4"/>
       <c r="Q37" s="4"/>
@@ -1700,13 +1704,13 @@
         <v>113</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>114</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="M38" s="4"/>
       <c r="Q38" s="4"/>
@@ -1719,13 +1723,13 @@
         <v>116</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="M39" s="4"/>
       <c r="Q39" s="4"/>
@@ -1738,13 +1742,13 @@
         <v>119</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="M40" s="4"/>
       <c r="Q40" s="4"/>
@@ -1757,13 +1761,13 @@
         <v>122</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>123</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="M41" s="4"/>
       <c r="Q41" s="4"/>
@@ -1776,13 +1780,13 @@
         <v>125</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>126</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="M42" s="4"/>
       <c r="Q42" s="4"/>
